--- a/BHVN.xlsx
+++ b/BHVN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF885CA-D989-41C4-AF8A-3429327C331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B6EC7-2E4C-4060-BA36-FD7CD16FB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39810" yWindow="1950" windowWidth="26865" windowHeight="17655" xr2:uid="{F7F78DF9-3509-4A04-BA5A-BBE1BEFD2FB5}"/>
+    <workbookView xWindow="54930" yWindow="6290" windowWidth="21910" windowHeight="13710" xr2:uid="{F7F78DF9-3509-4A04-BA5A-BBE1BEFD2FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Price</t>
   </si>
@@ -58,9 +58,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Founded</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>myostatin adnectin</t>
   </si>
   <si>
-    <t>SMA</t>
-  </si>
-  <si>
     <t>BMY</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>Kv7 agonist</t>
   </si>
   <si>
-    <t>Epilepsy, Bipolar</t>
-  </si>
-  <si>
     <t>BHV-2100</t>
   </si>
   <si>
@@ -169,7 +160,73 @@
     <t>beta-1 adrenergic receptor antibody depletor</t>
   </si>
   <si>
-    <t>DCM</t>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>BHV-1400</t>
+  </si>
+  <si>
+    <t>IgAN</t>
+  </si>
+  <si>
+    <t>Peripartum Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>1H25: Laser-evoked potential results for BHV-2100</t>
+  </si>
+  <si>
+    <t>SMA, Obesity</t>
+  </si>
+  <si>
+    <t>SCA, OCD</t>
+  </si>
+  <si>
+    <t>CEO: Vlad Coric</t>
+  </si>
+  <si>
+    <t>CMO: Irfan Qureshi</t>
+  </si>
+  <si>
+    <t>BHV-1310</t>
+  </si>
+  <si>
+    <t>bispecific IgG degrader</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Filed</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>DCM, Graves</t>
+  </si>
+  <si>
+    <t>TRAP degrader</t>
+  </si>
+  <si>
+    <t>BHV-1530</t>
+  </si>
+  <si>
+    <t>FGFR3 ADC</t>
+  </si>
+  <si>
+    <t>2H25: BHV-7000 depression data</t>
+  </si>
+  <si>
+    <t>1H26: BHV-7000 epilepsy data</t>
+  </si>
+  <si>
+    <t>Epilepsy, Depression</t>
+  </si>
+  <si>
+    <t>Trop-2 ADC</t>
   </si>
 </sst>
 </file>
@@ -313,24 +370,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -672,129 +726,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B49622D-AA8A-4F5D-AF6F-807E29EF0A51}">
-  <dimension ref="B2:M13"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="5.6328125" customWidth="1"/>
+    <col min="10" max="10" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>52.37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="4"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>94.542253000000002</v>
+        <v>101.054895</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>4951.1777896100002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>2067.5831517000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>239.147+197.801</f>
-        <v>436.94799999999998</v>
+        <v>489</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -802,129 +848,182 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>4514.2297896099999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+        <v>1578.5831517000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" location="'BHV-2100'!A1" display="BHV-2100" xr:uid="{797B6251-D0E3-46B4-80C5-43757DAF696E}"/>
+    <hyperlink ref="B16" location="'BHV-2100'!A1" display="BHV-2100" xr:uid="{797B6251-D0E3-46B4-80C5-43757DAF696E}"/>
     <hyperlink ref="B3" location="troriluzole!A1" display="troriluzole" xr:uid="{016BE115-F16A-41A7-A376-CB2B4E0CB404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -937,43 +1036,43 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -990,43 +1089,43 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
